--- a/数值.xlsx
+++ b/数值.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\桌游\project 02\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD122B07-0D1B-4992-8E30-569F625C8D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="模型" sheetId="1" r:id="rId1"/>
@@ -18,9 +12,6 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -37,157 +28,472 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="33">
   <si>
     <t>数值：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>玩家生命值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>白板怪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数</t>
   </si>
   <si>
     <t>基础伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗平均扣血</t>
   </si>
   <si>
     <t>每回合行动点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>连击额外加伤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>怪物平均回合伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>怪物行动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>普攻3伤|重击7伤|强化加气力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗平均扣血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中攻击</t>
+  </si>
+  <si>
+    <t>重攻击</t>
+  </si>
+  <si>
+    <t>大的要来了</t>
   </si>
   <si>
     <t>战士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始</t>
+  </si>
+  <si>
+    <t>初始总计</t>
+  </si>
+  <si>
+    <t>普通</t>
+  </si>
+  <si>
+    <t>罕见</t>
+  </si>
+  <si>
+    <t>稀有</t>
+  </si>
+  <si>
+    <t>总计</t>
   </si>
   <si>
     <t>攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稀有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罕见</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通总计</t>
+  </si>
+  <si>
+    <t>攻击总计</t>
+  </si>
+  <si>
+    <t>罕见总计</t>
+  </si>
+  <si>
+    <t>技能总计</t>
   </si>
   <si>
     <t>技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有总计</t>
+  </si>
+  <si>
+    <t>能力总计</t>
   </si>
   <si>
     <t>能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>猎人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通总计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罕见总计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稀有总计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击总计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能总计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能力总计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始总计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>鸡煲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>紫皮人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -195,9 +501,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -205,20 +753,71 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -264,7 +863,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -299,7 +898,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -473,44 +1072,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="19.125" customWidth="1"/>
     <col min="2" max="2" width="26.125" customWidth="1"/>
     <col min="4" max="4" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -518,134 +1112,167 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <f>B3/(B4*B5+B6)</f>
-        <v>2.1428571428571428</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2.14285714285714</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <f>E3*B7</f>
-        <v>7.1428571428571432</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7.14285714285714</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <f>10/3</f>
-        <v>3.3333333333333335</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3.33333333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4257E7-079E-4EE6-8F27-C400369A7A50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C1">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <f>C1</f>
         <v>1</v>
       </c>
       <c r="K1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F2">
         <f>C2+C5</f>
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2">
         <f>SUM(C2:C4)</f>
         <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K2">
         <f>C2</f>
@@ -664,30 +1291,30 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F3">
         <f>C3+C6+C8</f>
         <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H3">
         <f>SUM(C5:C7)</f>
         <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K3">
         <f>C5</f>
@@ -702,34 +1329,34 @@
         <v>5</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N4" si="0">SUM(K3:M3)</f>
+        <f t="shared" ref="N3:N5" si="0">SUM(K3:M3)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F4">
         <f>C4+C7+C9</f>
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H4">
         <f>SUM(C8:C9)</f>
         <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="L4">
         <f>C8</f>
@@ -744,25 +1371,25 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F5">
         <f>SUM(F1:F4)</f>
         <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K5">
         <f>SUM(K2:K4)</f>
@@ -777,20 +1404,20 @@
         <v>16</v>
       </c>
       <c r="N5">
-        <f>SUM(K5:M5)</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="K6">
         <f>C1</f>
@@ -801,91 +1428,91 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F10">
         <f>C10</f>
         <v>2</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F11">
         <f>C11+C14</f>
         <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H11">
         <f>SUM(C11:C13)</f>
         <v>26</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K11">
         <f>C11</f>
@@ -904,30 +1531,30 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F12">
         <f>C12+C15+C17</f>
         <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H12">
         <f>SUM(C14:C16)</f>
         <v>34</v>
       </c>
       <c r="J12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K12">
         <f>C14</f>
@@ -942,34 +1569,34 @@
         <v>10</v>
       </c>
       <c r="N12">
-        <f t="shared" ref="N12:N13" si="2">SUM(K12:M12)</f>
+        <f t="shared" ref="N12:N14" si="2">SUM(K12:M12)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F13">
         <f>C13+C16+C18</f>
         <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H13">
         <f>SUM(C17:C18)</f>
         <v>11</v>
       </c>
       <c r="J13" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="L13">
         <f>C17</f>
@@ -984,25 +1611,25 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F14">
         <f>SUM(F10:F13)</f>
         <v>73</v>
       </c>
       <c r="J14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K14">
         <f>SUM(K11:K13)</f>
@@ -1017,20 +1644,20 @@
         <v>19</v>
       </c>
       <c r="N14">
-        <f>SUM(K14:M14)</f>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="K15">
         <f>C10</f>
@@ -1041,91 +1668,91 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C16">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C17">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C18">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F19">
         <f>C19</f>
         <v>2</v>
       </c>
       <c r="K19" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L19" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M19" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C20">
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F20">
         <f>C20+C23</f>
         <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H20">
         <f>SUM(C20:C22)</f>
         <v>23</v>
       </c>
       <c r="J20" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K20">
         <f>C20</f>
@@ -1144,30 +1771,30 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14">
       <c r="A21" s="1"/>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C21">
         <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F21">
         <f>C21+C24+C26</f>
         <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H21">
         <f>SUM(C23:C25)</f>
         <v>34</v>
       </c>
       <c r="J21" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K21">
         <f>C23</f>
@@ -1182,34 +1809,34 @@
         <v>6</v>
       </c>
       <c r="N21">
-        <f t="shared" ref="N21:N22" si="5">SUM(K21:M21)</f>
+        <f t="shared" ref="N21:N23" si="5">SUM(K21:M21)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14">
       <c r="A22" s="1"/>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C22">
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F22">
         <f>C22+C25+C27</f>
         <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H22">
         <f>SUM(C26:C27)</f>
         <v>14</v>
       </c>
       <c r="J22" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="L22">
         <f>C26</f>
@@ -1224,25 +1851,25 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C23">
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F23">
         <f>SUM(F19:F22)</f>
         <v>73</v>
       </c>
       <c r="J23" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K23">
         <f>SUM(K20:K22)</f>
@@ -1257,20 +1884,20 @@
         <v>17</v>
       </c>
       <c r="N23">
-        <f>SUM(K23:M23)</f>
+        <f t="shared" si="5"/>
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14">
       <c r="A24" s="1"/>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C24">
         <v>20</v>
       </c>
       <c r="J24" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="K24">
         <f>C19</f>
@@ -1281,91 +1908,91 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="1"/>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C25">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C26">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="1"/>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C27">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F28">
         <f>C28</f>
         <v>2</v>
       </c>
       <c r="K28" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L28" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M28" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C29">
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F29">
         <f>C29+C32</f>
         <v>19</v>
       </c>
       <c r="G29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H29">
         <f>SUM(C29:C31)</f>
         <v>25</v>
       </c>
       <c r="J29" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K29">
         <f>C29</f>
@@ -1384,30 +2011,30 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14">
       <c r="A30" s="1"/>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C30">
         <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F30">
         <f>C30+C33+C35</f>
         <v>35</v>
       </c>
       <c r="G30" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H30">
         <f>SUM(C32:C34)</f>
         <v>34</v>
       </c>
       <c r="J30" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K30">
         <f>C32</f>
@@ -1422,34 +2049,34 @@
         <v>10</v>
       </c>
       <c r="N30">
-        <f t="shared" ref="N30:N31" si="8">SUM(K30:M30)</f>
+        <f t="shared" ref="N30:N32" si="8">SUM(K30:M30)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14">
       <c r="A31" s="1"/>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C31">
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F31">
         <f>C31+C34+C36</f>
         <v>17</v>
       </c>
       <c r="G31" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H31">
         <f>SUM(C35:C36)</f>
         <v>12</v>
       </c>
       <c r="J31" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="L31">
         <f>C35</f>
@@ -1464,25 +2091,25 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C32">
         <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F32">
         <f>SUM(F28:F31)</f>
         <v>73</v>
       </c>
       <c r="J32" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K32">
         <f>SUM(K29:K31)</f>
@@ -1497,20 +2124,20 @@
         <v>17</v>
       </c>
       <c r="N32">
-        <f>SUM(K32:M32)</f>
+        <f t="shared" si="8"/>
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14">
       <c r="A33" s="1"/>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C33">
         <v>15</v>
       </c>
       <c r="J33" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="K33">
         <f>C28</f>
@@ -1521,30 +2148,30 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="1"/>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C34">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C35">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="1"/>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -1552,20 +2179,20 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A18"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/数值.xlsx
+++ b/数值.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="模型" sheetId="1" r:id="rId1"/>
     <sheet name="尖塔统计" sheetId="2" r:id="rId2"/>
+    <sheet name="机制设计" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="62">
   <si>
     <t>数值：</t>
   </si>
@@ -127,6 +128,93 @@
   </si>
   <si>
     <t>紫皮人</t>
+  </si>
+  <si>
+    <t>手：</t>
+  </si>
+  <si>
+    <t>外家拳：</t>
+  </si>
+  <si>
+    <t>增加气力，提升对气力的利用率</t>
+  </si>
+  <si>
+    <t>内家拳：</t>
+  </si>
+  <si>
+    <t>获得大量化劲，并消耗化劲来造成伤害</t>
+  </si>
+  <si>
+    <t>点穴：</t>
+  </si>
+  <si>
+    <t>打击不同的穴位，造成不同的效果，打击穴位越多伤害越高</t>
+  </si>
+  <si>
+    <t>暗器：</t>
+  </si>
+  <si>
+    <t>运用不同的暗器造成伤害</t>
+  </si>
+  <si>
+    <t>脚：</t>
+  </si>
+  <si>
+    <t>轻功：</t>
+  </si>
+  <si>
+    <t>快速抽牌，可以根据手牌数量获得加成</t>
+  </si>
+  <si>
+    <t>连环腿：</t>
+  </si>
+  <si>
+    <t>可以额外消耗动作来获得更强的效果</t>
+  </si>
+  <si>
+    <t>回旋踢：</t>
+  </si>
+  <si>
+    <t>获得回旋来增加腿法的伤害</t>
+  </si>
+  <si>
+    <t>头：</t>
+  </si>
+  <si>
+    <t>铁头功：</t>
+  </si>
+  <si>
+    <t>有概率将敌人击出失衡</t>
+  </si>
+  <si>
+    <t>音波功：</t>
+  </si>
+  <si>
+    <t>包含众多削弱敌人、增强己方的音波功法</t>
+  </si>
+  <si>
+    <t>口中发射暗器，伤人于无形</t>
+  </si>
+  <si>
+    <t>身：</t>
+  </si>
+  <si>
+    <t>硬气功：</t>
+  </si>
+  <si>
+    <t>专注减伤和反震的招式</t>
+  </si>
+  <si>
+    <t>柔骨术：</t>
+  </si>
+  <si>
+    <t>获取大量化劲，利用身体柔韧性控制敌人</t>
+  </si>
+  <si>
+    <t>身法：</t>
+  </si>
+  <si>
+    <t>依靠闪躲腾挪来躲避敌人的攻击</t>
   </si>
 </sst>
 </file>
@@ -139,14 +227,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -602,148 +683,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1080,8 +1161,8 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1212,7 +1293,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2195,4 +2276,145 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/数值.xlsx
+++ b/数值.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="模型" sheetId="1" r:id="rId1"/>
     <sheet name="尖塔统计" sheetId="2" r:id="rId2"/>
     <sheet name="机制设计" sheetId="3" r:id="rId3"/>
+    <sheet name="卡牌目录" sheetId="4" r:id="rId4"/>
+    <sheet name="机制目录" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,8 +30,67 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>bili</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>bili:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+招式：造成伤害或获得化劲
+技巧：盘外招，丰富多样的效果
+秘诀：精妙的法门，可以短时间增强战力</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>bili:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+起始
+普通
+高级
+传说</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="96">
   <si>
     <t>数值：</t>
   </si>
@@ -139,24 +200,39 @@
     <t>增加气力，提升对气力的利用率</t>
   </si>
   <si>
+    <t>高级</t>
+  </si>
+  <si>
+    <t>传说</t>
+  </si>
+  <si>
     <t>内家拳：</t>
   </si>
   <si>
     <t>获得大量化劲，并消耗化劲来造成伤害</t>
   </si>
   <si>
+    <t>招式</t>
+  </si>
+  <si>
     <t>点穴：</t>
   </si>
   <si>
     <t>打击不同的穴位，造成不同的效果，打击穴位越多伤害越高</t>
   </si>
   <si>
+    <t>技巧</t>
+  </si>
+  <si>
     <t>暗器：</t>
   </si>
   <si>
     <t>运用不同的暗器造成伤害</t>
   </si>
   <si>
+    <t>秘诀</t>
+  </si>
+  <si>
     <t>脚：</t>
   </si>
   <si>
@@ -215,6 +291,93 @@
   </si>
   <si>
     <t>依靠闪躲腾挪来躲避敌人的攻击</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>武功类别</t>
+  </si>
+  <si>
+    <t>卡牌类别</t>
+  </si>
+  <si>
+    <t>稀有度</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>费用</t>
+  </si>
+  <si>
+    <t>效果</t>
+  </si>
+  <si>
+    <t>手</t>
+  </si>
+  <si>
+    <t>起始</t>
+  </si>
+  <si>
+    <t>拳打</t>
+  </si>
+  <si>
+    <t>造成3点伤害，或获得2化劲</t>
+  </si>
+  <si>
+    <t>脚</t>
+  </si>
+  <si>
+    <t>脚踢</t>
+  </si>
+  <si>
+    <t>头</t>
+  </si>
+  <si>
+    <t>头槌</t>
+  </si>
+  <si>
+    <t>造成1点伤害，施加失衡</t>
+  </si>
+  <si>
+    <t>身</t>
+  </si>
+  <si>
+    <t>闪躲</t>
+  </si>
+  <si>
+    <t>获得3化劲</t>
+  </si>
+  <si>
+    <t>基础规则：</t>
+  </si>
+  <si>
+    <t>伤害：1点伤害扣除1点血量</t>
+  </si>
+  <si>
+    <t>化劲：1点化劲抵消1点伤害，回合开始前清除</t>
+  </si>
+  <si>
+    <t>状态：默认堆叠10，角色身上的所有状态回合结束数量减1</t>
+  </si>
+  <si>
+    <t>堆叠X：该类型的状态最多堆叠X个，超出的部分不会堆叠上去</t>
+  </si>
+  <si>
+    <t>永久：该类型的状态回合结束时不会减少数量</t>
+  </si>
+  <si>
+    <t>失衡：</t>
+  </si>
+  <si>
+    <t>堆叠3，当累积3个之后清除所有失衡，获得倒地</t>
+  </si>
+  <si>
+    <t>倒地：</t>
+  </si>
+  <si>
+    <t>回合开始时每有一层便受到5点伤害，之后全部清除</t>
   </si>
 </sst>
 </file>
@@ -227,7 +390,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,6 +541,17 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1292,8 +1466,8 @@
   <sheetPr/>
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2281,136 +2455,359 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" t="s">
-        <v>61</v>
+        <v>94</v>
+      </c>
+      <c r="B10" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/数值.xlsx
+++ b/数值.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\桌游\project 02\boardgame_design_02\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B08DF9-0FF2-4A22-A274-EECAE1928E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="模型" sheetId="1" r:id="rId1"/>
@@ -14,29 +20,16 @@
     <sheet name="机制目录" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>bili</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -60,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -90,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="113">
   <si>
     <t>数值：</t>
   </si>
@@ -378,168 +371,86 @@
   </si>
   <si>
     <t>回合开始时每有一层便受到5点伤害，之后全部清除</t>
+  </si>
+  <si>
+    <t>手</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成5点伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>少林拳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>咏春拳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>形意拳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>太极拳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>八卦掌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>八极拳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>百会穴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>檀中穴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>命门穴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>涌泉穴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱镖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>银针</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞刀</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>震天雷</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -553,202 +464,37 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -756,316 +502,1013 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>机制设计!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>招式</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>机制设计!$B$24:$D$24</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>普通</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>高级</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>传说</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>机制设计!$B$25:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BEAE-42F8-8A1F-180851B84C4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>机制设计!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>技巧</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>机制设计!$B$24:$D$24</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>普通</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>高级</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>传说</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>机制设计!$B$26:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BEAE-42F8-8A1F-180851B84C4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>机制设计!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>秘诀</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>机制设计!$B$24:$D$24</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>普通</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>高级</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>传说</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>机制设计!$B$27:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BEAE-42F8-8A1F-180851B84C4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1022248408"/>
+        <c:axId val="1022250208"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1022248408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1022250208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1022250208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1022248408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1073,6 +1516,47 @@
   <book/>
   <sheets/>
 </customStorage>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5012</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>32083</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>421104</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>155407</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B36E480C-50CA-AA92-9FA3-BFB2CFB174EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1327,31 +1811,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.125" customWidth="1"/>
     <col min="2" max="2" width="26.125" customWidth="1"/>
     <col min="4" max="4" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1359,7 +1843,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1371,10 +1855,10 @@
       </c>
       <c r="E3">
         <f>B3/(B4*B5+B6)</f>
-        <v>2.14285714285714</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>2.1428571428571401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1386,10 +1870,10 @@
       </c>
       <c r="E4">
         <f>E3*B7</f>
-        <v>7.14285714285714</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>7.1428571428571397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1397,7 +1881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1405,16 +1889,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
         <f>10/3</f>
-        <v>3.33333333333333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>3.3333333333333299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1422,7 +1906,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1430,7 +1914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1438,7 +1922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1446,7 +1930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1455,24 +1939,23 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1502,7 +1985,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -1546,7 +2029,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>18</v>
@@ -1588,7 +2071,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>19</v>
@@ -1626,7 +2109,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -1663,7 +2146,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>18</v>
@@ -1683,7 +2166,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
         <v>19</v>
@@ -1692,7 +2175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -1703,7 +2186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
         <v>19</v>
@@ -1712,7 +2195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1742,7 +2225,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -1786,7 +2269,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
         <v>18</v>
@@ -1828,7 +2311,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
         <v>19</v>
@@ -1866,7 +2349,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1903,7 +2386,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
         <v>18</v>
@@ -1923,7 +2406,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" t="s">
         <v>19</v>
@@ -1932,7 +2415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -1943,7 +2426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" t="s">
         <v>19</v>
@@ -1952,7 +2435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1982,7 +2465,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -2026,7 +2509,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" t="s">
         <v>18</v>
@@ -2068,7 +2551,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" t="s">
         <v>19</v>
@@ -2106,7 +2589,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -2143,7 +2626,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" t="s">
         <v>18</v>
@@ -2163,7 +2646,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" t="s">
         <v>19</v>
@@ -2172,7 +2655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -2183,7 +2666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" t="s">
         <v>19</v>
@@ -2192,7 +2675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -2222,7 +2705,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
@@ -2266,7 +2749,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" t="s">
         <v>18</v>
@@ -2308,7 +2791,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" t="s">
         <v>19</v>
@@ -2346,7 +2829,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2383,7 +2866,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" t="s">
         <v>18</v>
@@ -2403,7 +2886,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" t="s">
         <v>19</v>
@@ -2412,7 +2895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>29</v>
       </c>
@@ -2423,7 +2906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" t="s">
         <v>19</v>
@@ -2434,204 +2917,296 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A29:A31"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A36"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
       </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="C24" t="s">
         <v>36</v>
       </c>
-      <c r="K2" t="s">
+      <c r="D24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>40</v>
       </c>
-      <c r="L3">
+      <c r="B25">
+        <v>13</v>
+      </c>
+      <c r="C25">
+        <v>12</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>43</v>
       </c>
-      <c r="L4">
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>13</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>46</v>
       </c>
-      <c r="L5">
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" t="s">
-        <v>66</v>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>33</v>
+      </c>
+      <c r="D28">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -2654,7 +3229,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2677,7 +3252,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2700,7 +3275,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2723,7 +3298,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2746,55 +3321,88 @@
         <v>85</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>92</v>
       </c>
@@ -2802,7 +3410,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -2811,7 +3419,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/数值.xlsx
+++ b/数值.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\桌游\project 02\boardgame_design_02\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B08DF9-0FF2-4A22-A274-EECAE1928E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="模型" sheetId="1" r:id="rId1"/>
@@ -18,18 +12,32 @@
     <sheet name="机制设计" sheetId="3" r:id="rId3"/>
     <sheet name="卡牌目录" sheetId="4" r:id="rId4"/>
     <sheet name="机制目录" sheetId="5" r:id="rId5"/>
+    <sheet name="内功目录" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>bili</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -73,8 +81,8 @@
           <t xml:space="preserve">
 起始
 普通
-高级
-传说</t>
+上乘
+顶级</t>
         </r>
       </text>
     </comment>
@@ -83,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="144">
   <si>
     <t>数值：</t>
   </si>
@@ -193,99 +201,177 @@
     <t>增加气力，提升对气力的利用率</t>
   </si>
   <si>
+    <t>少林拳</t>
+  </si>
+  <si>
+    <t>咏春拳</t>
+  </si>
+  <si>
+    <t>八极拳</t>
+  </si>
+  <si>
+    <t>内家拳：</t>
+  </si>
+  <si>
+    <t>获得大量化劲，并消耗化劲来造成伤害</t>
+  </si>
+  <si>
+    <t>太极拳</t>
+  </si>
+  <si>
+    <t>八卦掌</t>
+  </si>
+  <si>
+    <t>形意拳</t>
+  </si>
+  <si>
+    <t>点穴：</t>
+  </si>
+  <si>
+    <t>打击不同的穴位，造成不同的效果，打击穴位越多伤害越高</t>
+  </si>
+  <si>
+    <t>百会穴</t>
+  </si>
+  <si>
+    <t>檀中穴</t>
+  </si>
+  <si>
+    <t>命门穴</t>
+  </si>
+  <si>
+    <t>涌泉穴</t>
+  </si>
+  <si>
+    <t>暗器：</t>
+  </si>
+  <si>
+    <t>运用不同的暗器造成伤害</t>
+  </si>
+  <si>
+    <t>金钱镖</t>
+  </si>
+  <si>
+    <t>银针</t>
+  </si>
+  <si>
+    <t>飞刀</t>
+  </si>
+  <si>
+    <t>震天雷</t>
+  </si>
+  <si>
+    <t>脚：</t>
+  </si>
+  <si>
+    <t>轻功：</t>
+  </si>
+  <si>
+    <t>快速抽牌，可以根据手牌数量获得加成</t>
+  </si>
+  <si>
+    <t>奔跑</t>
+  </si>
+  <si>
+    <t>跳跃</t>
+  </si>
+  <si>
+    <t>水上漂</t>
+  </si>
+  <si>
+    <t>步法</t>
+  </si>
+  <si>
+    <t>连环腿：</t>
+  </si>
+  <si>
+    <t>可以额外消耗动作来获得更强的效果</t>
+  </si>
+  <si>
+    <t>无影脚</t>
+  </si>
+  <si>
+    <t>毒龙钻</t>
+  </si>
+  <si>
+    <t>回旋踢：</t>
+  </si>
+  <si>
+    <t>获得回旋来增加腿法的伤害</t>
+  </si>
+  <si>
+    <t>十二路谭腿</t>
+  </si>
+  <si>
+    <t>旋风腿</t>
+  </si>
+  <si>
+    <t>扫堂腿</t>
+  </si>
+  <si>
+    <t>头：</t>
+  </si>
+  <si>
+    <t>铁头功：</t>
+  </si>
+  <si>
+    <t>有概率将敌人击出失衡</t>
+  </si>
+  <si>
+    <t>铁头功</t>
+  </si>
+  <si>
+    <t>音波功：</t>
+  </si>
+  <si>
+    <t>包含众多削弱敌人、增强己方的音波功法</t>
+  </si>
+  <si>
+    <t>口中发射暗器，伤人于无形</t>
+  </si>
+  <si>
+    <t>身：</t>
+  </si>
+  <si>
+    <t>硬气功：</t>
+  </si>
+  <si>
+    <t>专注减伤和反震的招式</t>
+  </si>
+  <si>
+    <t>金钟罩</t>
+  </si>
+  <si>
+    <t>铁布衫</t>
+  </si>
+  <si>
+    <t>柔骨术：</t>
+  </si>
+  <si>
+    <t>获取大量化劲，利用身体柔韧性控制敌人</t>
+  </si>
+  <si>
+    <t>身法：</t>
+  </si>
+  <si>
+    <t>依靠闪躲腾挪来躲避敌人的攻击</t>
+  </si>
+  <si>
     <t>高级</t>
   </si>
   <si>
     <t>传说</t>
   </si>
   <si>
-    <t>内家拳：</t>
-  </si>
-  <si>
-    <t>获得大量化劲，并消耗化劲来造成伤害</t>
-  </si>
-  <si>
     <t>招式</t>
   </si>
   <si>
-    <t>点穴：</t>
-  </si>
-  <si>
-    <t>打击不同的穴位，造成不同的效果，打击穴位越多伤害越高</t>
-  </si>
-  <si>
     <t>技巧</t>
   </si>
   <si>
-    <t>暗器：</t>
-  </si>
-  <si>
-    <t>运用不同的暗器造成伤害</t>
-  </si>
-  <si>
     <t>秘诀</t>
   </si>
   <si>
-    <t>脚：</t>
-  </si>
-  <si>
-    <t>轻功：</t>
-  </si>
-  <si>
-    <t>快速抽牌，可以根据手牌数量获得加成</t>
-  </si>
-  <si>
-    <t>连环腿：</t>
-  </si>
-  <si>
-    <t>可以额外消耗动作来获得更强的效果</t>
-  </si>
-  <si>
-    <t>回旋踢：</t>
-  </si>
-  <si>
-    <t>获得回旋来增加腿法的伤害</t>
-  </si>
-  <si>
-    <t>头：</t>
-  </si>
-  <si>
-    <t>铁头功：</t>
-  </si>
-  <si>
-    <t>有概率将敌人击出失衡</t>
-  </si>
-  <si>
-    <t>音波功：</t>
-  </si>
-  <si>
-    <t>包含众多削弱敌人、增强己方的音波功法</t>
-  </si>
-  <si>
-    <t>口中发射暗器，伤人于无形</t>
-  </si>
-  <si>
-    <t>身：</t>
-  </si>
-  <si>
-    <t>硬气功：</t>
-  </si>
-  <si>
-    <t>专注减伤和反震的招式</t>
-  </si>
-  <si>
-    <t>柔骨术：</t>
-  </si>
-  <si>
-    <t>获取大量化劲，利用身体柔韧性控制敌人</t>
-  </si>
-  <si>
-    <t>身法：</t>
-  </si>
-  <si>
-    <t>依靠闪躲腾挪来躲避敌人的攻击</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -343,6 +429,9 @@
     <t>获得3化劲</t>
   </si>
   <si>
+    <t>造成5点伤害</t>
+  </si>
+  <si>
     <t>基础规则：</t>
   </si>
   <si>
@@ -373,84 +462,236 @@
     <t>回合开始时每有一层便受到5点伤害，之后全部清除</t>
   </si>
   <si>
-    <t>手</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成5点伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>少林拳</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>咏春拳</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>形意拳</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>太极拳</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>八卦掌</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>八极拳</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>百会穴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>檀中穴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>命门穴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>涌泉穴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>金钱镖</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>银针</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞刀</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>震天雷</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>连招</t>
+  </si>
+  <si>
+    <t>八段锦</t>
+  </si>
+  <si>
+    <t>手手手</t>
+  </si>
+  <si>
+    <t>五禽戏</t>
+  </si>
+  <si>
+    <t>脚脚脚</t>
+  </si>
+  <si>
+    <t>造成3点伤害，抽1张牌</t>
+  </si>
+  <si>
+    <t>养生功</t>
+  </si>
+  <si>
+    <t>手手脚</t>
+  </si>
+  <si>
+    <t>造成3点伤害，获得2点化劲</t>
+  </si>
+  <si>
+    <t>吐纳法</t>
+  </si>
+  <si>
+    <t>脚脚手</t>
+  </si>
+  <si>
+    <t>获得2点化劲，抽1张牌</t>
+  </si>
+  <si>
+    <t>头头头</t>
+  </si>
+  <si>
+    <t>身身身</t>
+  </si>
+  <si>
+    <t>手手头</t>
+  </si>
+  <si>
+    <t>手手身</t>
+  </si>
+  <si>
+    <t>脚脚头</t>
+  </si>
+  <si>
+    <t>脚脚身</t>
+  </si>
+  <si>
+    <t>头头身</t>
+  </si>
+  <si>
+    <t>身身头</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -464,37 +705,202 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -502,35 +908,321 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -544,6 +1236,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -557,7 +1250,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -569,7 +1262,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -585,7 +1277,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>机制设计!$A$25</c:f>
+              <c:f>机制设计!$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -604,9 +1296,12 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>机制设计!$B$24:$D$24</c:f>
+              <c:f>机制设计!$B$29:$D$29</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -623,7 +1318,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>机制设计!$B$25:$D$25</c:f>
+              <c:f>机制设计!$B$30:$D$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -639,18 +1334,13 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BEAE-42F8-8A1F-180851B84C4A}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>机制设计!$A$26</c:f>
+              <c:f>机制设计!$A$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -669,9 +1359,12 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>机制设计!$B$24:$D$24</c:f>
+              <c:f>机制设计!$B$29:$D$29</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -688,7 +1381,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>机制设计!$B$26:$D$26</c:f>
+              <c:f>机制设计!$B$31:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -704,18 +1397,13 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BEAE-42F8-8A1F-180851B84C4A}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>机制设计!$A$27</c:f>
+              <c:f>机制设计!$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -734,9 +1422,12 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>机制设计!$B$24:$D$24</c:f>
+              <c:f>机制设计!$B$29:$D$29</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -753,7 +1444,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>机制设计!$B$27:$D$27</c:f>
+              <c:f>机制设计!$B$32:$D$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -766,11 +1457,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BEAE-42F8-8A1F-180851B84C4A}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -814,7 +1500,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -826,7 +1512,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1022250208"/>
@@ -873,7 +1558,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -885,7 +1570,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1022248408"/>
@@ -902,6 +1586,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -915,7 +1600,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -927,13 +1612,17 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{ef6a0ee3-7ac1-43c8-8696-209bccba7fae}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -955,9 +1644,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1519,34 +2207,28 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>5012</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>32083</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>421104</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>155407</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B36E480C-50CA-AA92-9FA3-BFB2CFB174EE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="3433445" y="5099050"/>
+        <a:ext cx="4531360" cy="2294890"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1811,31 +2493,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="19.125" customWidth="1"/>
     <col min="2" max="2" width="26.125" customWidth="1"/>
     <col min="4" max="4" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1843,7 +2525,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1855,10 +2537,10 @@
       </c>
       <c r="E3">
         <f>B3/(B4*B5+B6)</f>
-        <v>2.1428571428571401</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2.14285714285714</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1870,10 +2552,10 @@
       </c>
       <c r="E4">
         <f>E3*B7</f>
-        <v>7.1428571428571397</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7.14285714285714</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1881,7 +2563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1889,16 +2571,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
         <f>10/3</f>
-        <v>3.3333333333333299</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3.33333333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1906,7 +2588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1914,7 +2596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1922,7 +2604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1930,7 +2612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1939,23 +2621,24 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView zoomScale="220" zoomScaleNormal="220" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1985,8 +2668,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:14">
+      <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
@@ -2029,8 +2712,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:14">
+      <c r="A3" s="2"/>
       <c r="B3" t="s">
         <v>18</v>
       </c>
@@ -2071,8 +2754,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:14">
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -2109,8 +2792,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:14">
+      <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B5" t="s">
@@ -2146,8 +2829,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
+    <row r="6" spans="1:14">
+      <c r="A6" s="2"/>
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -2166,8 +2849,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -2175,8 +2858,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B8" t="s">
@@ -2186,8 +2869,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2"/>
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -2195,7 +2878,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -2225,8 +2908,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:14">
+      <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B11" t="s">
@@ -2269,8 +2952,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
+    <row r="12" spans="1:14">
+      <c r="A12" s="2"/>
       <c r="B12" t="s">
         <v>18</v>
       </c>
@@ -2311,8 +2994,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
+    <row r="13" spans="1:14">
+      <c r="A13" s="2"/>
       <c r="B13" t="s">
         <v>19</v>
       </c>
@@ -2349,8 +3032,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:14">
+      <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B14" t="s">
@@ -2386,8 +3069,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
+    <row r="15" spans="1:14">
+      <c r="A15" s="2"/>
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -2406,8 +3089,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2"/>
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -2415,8 +3098,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B17" t="s">
@@ -2426,8 +3109,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2"/>
       <c r="B18" t="s">
         <v>19</v>
       </c>
@@ -2435,7 +3118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -2465,8 +3148,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:14">
+      <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
@@ -2509,8 +3192,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
+    <row r="21" spans="1:14">
+      <c r="A21" s="2"/>
       <c r="B21" t="s">
         <v>18</v>
       </c>
@@ -2551,8 +3234,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
+    <row r="22" spans="1:14">
+      <c r="A22" s="2"/>
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -2589,8 +3272,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:14">
+      <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B23" t="s">
@@ -2626,8 +3309,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
+    <row r="24" spans="1:14">
+      <c r="A24" s="2"/>
       <c r="B24" t="s">
         <v>18</v>
       </c>
@@ -2646,8 +3329,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2"/>
       <c r="B25" t="s">
         <v>19</v>
       </c>
@@ -2655,8 +3338,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B26" t="s">
@@ -2666,8 +3349,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2"/>
       <c r="B27" t="s">
         <v>19</v>
       </c>
@@ -2675,7 +3358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -2705,8 +3388,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:14">
+      <c r="A29" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B29" t="s">
@@ -2749,8 +3432,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
+    <row r="30" spans="1:14">
+      <c r="A30" s="2"/>
       <c r="B30" t="s">
         <v>18</v>
       </c>
@@ -2791,8 +3474,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
+    <row r="31" spans="1:14">
+      <c r="A31" s="2"/>
       <c r="B31" t="s">
         <v>19</v>
       </c>
@@ -2829,8 +3512,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:14">
+      <c r="A32" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B32" t="s">
@@ -2866,8 +3549,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
+    <row r="33" spans="1:14">
+      <c r="A33" s="2"/>
       <c r="B33" t="s">
         <v>18</v>
       </c>
@@ -2886,8 +3569,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2"/>
       <c r="B34" t="s">
         <v>19</v>
       </c>
@@ -2895,8 +3578,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:3">
+      <c r="A35" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B35" t="s">
@@ -2906,8 +3589,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2"/>
       <c r="B36" t="s">
         <v>19</v>
       </c>
@@ -2917,40 +3600,41 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A36"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -2958,468 +3642,747 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>50</v>
       </c>
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>65</v>
-      </c>
       <c r="B21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>82</v>
+      </c>
       <c r="B24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" t="s">
         <v>17</v>
       </c>
-      <c r="C24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25">
+      <c r="C29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30">
         <v>13</v>
       </c>
-      <c r="C25">
+      <c r="C30">
         <v>12</v>
       </c>
-      <c r="D25">
+      <c r="D30">
         <v>5</v>
       </c>
-      <c r="E25">
+      <c r="E30">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26">
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31">
         <v>7</v>
       </c>
-      <c r="C26">
+      <c r="C31">
         <v>13</v>
       </c>
-      <c r="D26">
+      <c r="D31">
         <v>6</v>
       </c>
-      <c r="E26">
+      <c r="E31">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27">
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32">
         <v>8</v>
       </c>
-      <c r="D27">
+      <c r="D32">
         <v>6</v>
       </c>
-      <c r="E27">
+      <c r="E32">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B28">
+    <row r="33" spans="2:4">
+      <c r="B33">
         <v>20</v>
       </c>
-      <c r="C28">
+      <c r="C33">
         <v>33</v>
       </c>
-      <c r="D28">
+      <c r="D33">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>96</v>
+      <c r="B6" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G6" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>96</v>
+      <c r="B7" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" t="s">
-        <v>95</v>
+      <c r="B1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/数值.xlsx
+++ b/数值.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\桌游\project 02\boardgame_design_02\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F2A553-778E-4308-A8A1-C495F73F8913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="模型" sheetId="1" r:id="rId1"/>
@@ -15,29 +21,16 @@
     <sheet name="内功目录" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>bili</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -61,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -91,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="148">
   <si>
     <t>数值：</t>
   </si>
@@ -441,9 +434,6 @@
     <t>化劲：1点化劲抵消1点伤害，回合开始前清除</t>
   </si>
   <si>
-    <t>状态：默认堆叠10，角色身上的所有状态回合结束数量减1</t>
-  </si>
-  <si>
     <t>堆叠X：该类型的状态最多堆叠X个，超出的部分不会堆叠上去</t>
   </si>
   <si>
@@ -453,9 +443,6 @@
     <t>失衡：</t>
   </si>
   <si>
-    <t>堆叠3，当累积3个之后清除所有失衡，获得倒地</t>
-  </si>
-  <si>
     <t>倒地：</t>
   </si>
   <si>
@@ -523,19 +510,37 @@
   </si>
   <si>
     <t>身身头</t>
+  </si>
+  <si>
+    <t>造成4次1点伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>施加1内伤</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>内伤：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>每获得3个失衡，清除3个失衡，获得1个倒地</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态：默认堆叠5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到的1次伤害数值变为双倍，之后清除1个内伤</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,150 +556,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -705,202 +566,45 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -908,321 +612,37 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1236,7 +656,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1262,6 +681,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1296,9 +716,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>机制设计!$B$29:$D$29</c:f>
@@ -1334,6 +751,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-73BF-455D-A636-0405AD893BA7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1359,9 +781,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>机制设计!$B$29:$D$29</c:f>
@@ -1397,6 +816,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-73BF-455D-A636-0405AD893BA7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1422,9 +846,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>机制设计!$B$29:$D$29</c:f>
@@ -1457,6 +878,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-73BF-455D-A636-0405AD893BA7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1512,6 +938,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1022250208"/>
@@ -1570,6 +997,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1022248408"/>
@@ -1586,7 +1014,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1612,6 +1039,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1646,6 +1074,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2207,7 +1636,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -2221,14 +1650,20 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>155407</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3433445" y="5099050"/>
-        <a:ext cx="4531360" cy="2294890"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2493,31 +1928,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.125" customWidth="1"/>
     <col min="2" max="2" width="26.125" customWidth="1"/>
     <col min="4" max="4" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2525,7 +1960,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2537,10 +1972,10 @@
       </c>
       <c r="E3">
         <f>B3/(B4*B5+B6)</f>
-        <v>2.14285714285714</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>2.1428571428571401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2552,10 +1987,10 @@
       </c>
       <c r="E4">
         <f>E3*B7</f>
-        <v>7.14285714285714</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>7.1428571428571397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2563,7 +1998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2571,16 +2006,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
         <f>10/3</f>
-        <v>3.33333333333333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>3.3333333333333299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2588,7 +2023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2596,7 +2031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2604,7 +2039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2612,7 +2047,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2621,24 +2056,23 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2668,7 +2102,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -2712,7 +2146,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
         <v>18</v>
@@ -2754,7 +2188,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>19</v>
@@ -2792,7 +2226,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
@@ -2829,7 +2263,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
         <v>18</v>
@@ -2849,7 +2283,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>19</v>
@@ -2858,7 +2292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
@@ -2869,7 +2303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
         <v>19</v>
@@ -2878,7 +2312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -2908,7 +2342,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -2952,7 +2386,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" t="s">
         <v>18</v>
@@ -2994,7 +2428,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
         <v>19</v>
@@ -3032,7 +2466,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -3069,7 +2503,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" t="s">
         <v>18</v>
@@ -3089,7 +2523,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" t="s">
         <v>19</v>
@@ -3098,7 +2532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
@@ -3109,7 +2543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" t="s">
         <v>19</v>
@@ -3118,7 +2552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -3148,7 +2582,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -3192,7 +2626,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" t="s">
         <v>18</v>
@@ -3234,7 +2668,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" t="s">
         <v>19</v>
@@ -3272,7 +2706,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
@@ -3309,7 +2743,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" t="s">
         <v>18</v>
@@ -3329,7 +2763,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" t="s">
         <v>19</v>
@@ -3338,7 +2772,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
@@ -3349,7 +2783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" t="s">
         <v>19</v>
@@ -3358,7 +2792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -3388,7 +2822,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>21</v>
       </c>
@@ -3432,7 +2866,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" t="s">
         <v>18</v>
@@ -3474,7 +2908,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" t="s">
         <v>19</v>
@@ -3512,7 +2946,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>26</v>
       </c>
@@ -3549,7 +2983,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" t="s">
         <v>18</v>
@@ -3569,7 +3003,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" t="s">
         <v>19</v>
@@ -3578,7 +3012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>29</v>
       </c>
@@ -3589,7 +3023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" t="s">
         <v>19</v>
@@ -3600,41 +3034,40 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A29:A31"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A36"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A10" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -3642,7 +3075,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -3653,7 +3086,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -3661,7 +3094,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
@@ -3672,7 +3105,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -3680,7 +3113,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
@@ -3694,7 +3127,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -3702,7 +3135,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>52</v>
       </c>
@@ -3716,12 +3149,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -3729,7 +3162,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -3743,7 +3176,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -3751,7 +3184,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -3759,7 +3192,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -3767,7 +3200,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>69</v>
       </c>
@@ -3778,12 +3211,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -3791,12 +3224,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>76</v>
       </c>
@@ -3804,7 +3237,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -3812,12 +3245,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -3825,7 +3258,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>82</v>
       </c>
@@ -3833,7 +3266,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>84</v>
       </c>
@@ -3841,7 +3274,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>86</v>
       </c>
@@ -3849,7 +3282,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="2:4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>17</v>
       </c>
@@ -3860,7 +3293,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>90</v>
       </c>
@@ -3877,7 +3310,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>91</v>
       </c>
@@ -3894,7 +3327,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>92</v>
       </c>
@@ -3908,7 +3341,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:4">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>20</v>
       </c>
@@ -3920,24 +3353,23 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>93</v>
       </c>
@@ -3960,7 +3392,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3983,7 +3415,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4006,7 +3438,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4029,7 +3461,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4052,7 +3484,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4072,7 +3504,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4085,304 +3517,336 @@
       <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>143</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="B9" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>119</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B10" t="s">
-        <v>122</v>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>93</v>
       </c>
       <c r="B1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" t="s">
         <v>127</v>
       </c>
-      <c r="C3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" t="s">
         <v>130</v>
       </c>
-      <c r="C4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" t="s">
         <v>133</v>
       </c>
-      <c r="C5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/数值.xlsx
+++ b/数值.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\桌游\project 02\boardgame_design_02\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F2A553-778E-4308-A8A1-C495F73F8913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="模型" sheetId="1" r:id="rId1"/>
@@ -21,16 +15,29 @@
     <sheet name="内功目录" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>bili</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="162">
   <si>
     <t>数值：</t>
   </si>
@@ -320,9 +327,24 @@
     <t>包含众多削弱敌人、增强己方的音波功法</t>
   </si>
   <si>
+    <t>狮子吼</t>
+  </si>
+  <si>
+    <t>梵音</t>
+  </si>
+  <si>
     <t>口中发射暗器，伤人于无形</t>
   </si>
   <si>
+    <t>枣核钉</t>
+  </si>
+  <si>
+    <t>吹箭</t>
+  </si>
+  <si>
+    <t>迷烟</t>
+  </si>
+  <si>
     <t>身：</t>
   </si>
   <si>
@@ -344,12 +366,21 @@
     <t>获取大量化劲，利用身体柔韧性控制敌人</t>
   </si>
   <si>
+    <t>缩骨术</t>
+  </si>
+  <si>
+    <t>擒拿术</t>
+  </si>
+  <si>
     <t>身法：</t>
   </si>
   <si>
     <t>依靠闪躲腾挪来躲避敌人的攻击</t>
   </si>
   <si>
+    <t>跌扑滚翻</t>
+  </si>
+  <si>
     <t>高级</t>
   </si>
   <si>
@@ -425,6 +456,12 @@
     <t>造成5点伤害</t>
   </si>
   <si>
+    <t>造成4次1点伤害</t>
+  </si>
+  <si>
+    <t>施加1内伤</t>
+  </si>
+  <si>
     <t>基础规则：</t>
   </si>
   <si>
@@ -434,6 +471,9 @@
     <t>化劲：1点化劲抵消1点伤害，回合开始前清除</t>
   </si>
   <si>
+    <t>状态：默认堆叠5</t>
+  </si>
+  <si>
     <t>堆叠X：该类型的状态最多堆叠X个，超出的部分不会堆叠上去</t>
   </si>
   <si>
@@ -443,10 +483,37 @@
     <t>失衡：</t>
   </si>
   <si>
+    <t>每获得3个失衡，便清除3个失衡，然后获得1个倒地</t>
+  </si>
+  <si>
     <t>倒地：</t>
   </si>
   <si>
-    <t>回合开始时每有一层便受到5点伤害，之后全部清除</t>
+    <t>回合开始时每有1个倒地便受到5点伤害，然后全部清除</t>
+  </si>
+  <si>
+    <t>内伤：</t>
+  </si>
+  <si>
+    <t>下次受到的伤害数值变为双倍，然后清除1个内伤</t>
+  </si>
+  <si>
+    <t>乏力：</t>
+  </si>
+  <si>
+    <t>每有1个会令招式造成的伤害-1，使用招式造成伤害后清除1个乏力</t>
+  </si>
+  <si>
+    <t>气力：</t>
+  </si>
+  <si>
+    <t>每有1个会令招式造成的伤害+1</t>
+  </si>
+  <si>
+    <t>僵硬：</t>
+  </si>
+  <si>
+    <t>获得的化劲-1，回合结束后清除1个僵硬</t>
   </si>
   <si>
     <t>名称</t>
@@ -510,37 +577,19 @@
   </si>
   <si>
     <t>身身头</t>
-  </si>
-  <si>
-    <t>造成4次1点伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>施加1内伤</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>内伤：</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>每获得3个失衡，清除3个失衡，获得1个倒地</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态：默认堆叠5</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>受到的1次伤害数值变为双倍，之后清除1个内伤</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,6 +605,157 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -566,45 +766,202 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="2"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -612,37 +969,323 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -656,6 +1299,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -681,7 +1325,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -697,7 +1340,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>机制设计!$A$30</c:f>
+              <c:f>机制设计!$A$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -716,9 +1359,12 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>机制设计!$B$29:$D$29</c:f>
+              <c:f>机制设计!$B$32:$D$32</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -735,7 +1381,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>机制设计!$B$30:$D$30</c:f>
+              <c:f>机制设计!$B$33:$D$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -751,18 +1397,13 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-73BF-455D-A636-0405AD893BA7}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>机制设计!$A$31</c:f>
+              <c:f>机制设计!$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -781,9 +1422,12 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>机制设计!$B$29:$D$29</c:f>
+              <c:f>机制设计!$B$32:$D$32</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -800,7 +1444,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>机制设计!$B$31:$D$31</c:f>
+              <c:f>机制设计!$B$34:$D$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -816,18 +1460,13 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-73BF-455D-A636-0405AD893BA7}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>机制设计!$A$32</c:f>
+              <c:f>机制设计!$A$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -846,9 +1485,12 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>机制设计!$B$29:$D$29</c:f>
+              <c:f>机制设计!$B$32:$D$32</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -865,7 +1507,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>机制设计!$B$32:$D$32</c:f>
+              <c:f>机制设计!$B$35:$D$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -878,11 +1520,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-73BF-455D-A636-0405AD893BA7}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -938,7 +1575,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1022250208"/>
@@ -997,7 +1633,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1022248408"/>
@@ -1014,6 +1649,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1039,7 +1675,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1074,7 +1709,6 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1636,34 +2270,28 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>5012</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>32083</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>421104</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>155407</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="3433445" y="5641975"/>
+        <a:ext cx="4531360" cy="2294890"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1928,31 +2556,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="19.125" customWidth="1"/>
     <col min="2" max="2" width="26.125" customWidth="1"/>
     <col min="4" max="4" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1960,7 +2588,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1972,10 +2600,10 @@
       </c>
       <c r="E3">
         <f>B3/(B4*B5+B6)</f>
-        <v>2.1428571428571401</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2.14285714285714</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1987,10 +2615,10 @@
       </c>
       <c r="E4">
         <f>E3*B7</f>
-        <v>7.1428571428571397</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7.14285714285714</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1998,7 +2626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2006,16 +2634,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
         <f>10/3</f>
-        <v>3.3333333333333299</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3.33333333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2023,7 +2651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2031,7 +2659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2039,7 +2667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2047,7 +2675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2056,23 +2684,24 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView zoomScale="220" zoomScaleNormal="220" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2102,8 +2731,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:14">
+      <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
@@ -2146,8 +2775,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:14">
+      <c r="A3" s="4"/>
       <c r="B3" t="s">
         <v>18</v>
       </c>
@@ -2188,8 +2817,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:14">
+      <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -2226,8 +2855,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:14">
+      <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B5" t="s">
@@ -2263,8 +2892,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
+    <row r="6" spans="1:14">
+      <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -2283,8 +2912,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -2292,8 +2921,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B8" t="s">
@@ -2303,8 +2932,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
+    <row r="9" spans="1:3">
+      <c r="A9" s="4"/>
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -2312,7 +2941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -2342,8 +2971,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:14">
+      <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B11" t="s">
@@ -2386,8 +3015,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
+    <row r="12" spans="1:14">
+      <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>18</v>
       </c>
@@ -2428,8 +3057,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
+    <row r="13" spans="1:14">
+      <c r="A13" s="4"/>
       <c r="B13" t="s">
         <v>19</v>
       </c>
@@ -2466,8 +3095,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:14">
+      <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B14" t="s">
@@ -2503,8 +3132,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
+    <row r="15" spans="1:14">
+      <c r="A15" s="4"/>
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -2523,8 +3152,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
+    <row r="16" spans="1:3">
+      <c r="A16" s="4"/>
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -2532,8 +3161,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B17" t="s">
@@ -2543,8 +3172,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
+    <row r="18" spans="1:3">
+      <c r="A18" s="4"/>
       <c r="B18" t="s">
         <v>19</v>
       </c>
@@ -2552,7 +3181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -2582,8 +3211,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:14">
+      <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
@@ -2626,8 +3255,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
+    <row r="21" spans="1:14">
+      <c r="A21" s="4"/>
       <c r="B21" t="s">
         <v>18</v>
       </c>
@@ -2668,8 +3297,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
+    <row r="22" spans="1:14">
+      <c r="A22" s="4"/>
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -2706,8 +3335,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:14">
+      <c r="A23" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B23" t="s">
@@ -2743,8 +3372,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
+    <row r="24" spans="1:14">
+      <c r="A24" s="4"/>
       <c r="B24" t="s">
         <v>18</v>
       </c>
@@ -2763,8 +3392,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
+    <row r="25" spans="1:3">
+      <c r="A25" s="4"/>
       <c r="B25" t="s">
         <v>19</v>
       </c>
@@ -2772,8 +3401,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B26" t="s">
@@ -2783,8 +3412,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
+    <row r="27" spans="1:3">
+      <c r="A27" s="4"/>
       <c r="B27" t="s">
         <v>19</v>
       </c>
@@ -2792,7 +3421,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -2822,8 +3451,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:14">
+      <c r="A29" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B29" t="s">
@@ -2866,8 +3495,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
+    <row r="30" spans="1:14">
+      <c r="A30" s="4"/>
       <c r="B30" t="s">
         <v>18</v>
       </c>
@@ -2908,8 +3537,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
+    <row r="31" spans="1:14">
+      <c r="A31" s="4"/>
       <c r="B31" t="s">
         <v>19</v>
       </c>
@@ -2946,8 +3575,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:14">
+      <c r="A32" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B32" t="s">
@@ -2983,8 +3612,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
+    <row r="33" spans="1:14">
+      <c r="A33" s="4"/>
       <c r="B33" t="s">
         <v>18</v>
       </c>
@@ -3003,8 +3632,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
+    <row r="34" spans="1:3">
+      <c r="A34" s="4"/>
       <c r="B34" t="s">
         <v>19</v>
       </c>
@@ -3012,8 +3641,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:3">
+      <c r="A35" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B35" t="s">
@@ -3023,8 +3652,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
+    <row r="36" spans="1:3">
+      <c r="A36" s="4"/>
       <c r="B36" t="s">
         <v>19</v>
       </c>
@@ -3034,40 +3663,41 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A36"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -3075,18 +3705,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -3094,18 +3724,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -3113,21 +3743,21 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -3135,26 +3765,26 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -3162,7 +3792,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -3176,7 +3806,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -3184,7 +3814,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -3192,7 +3822,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -3200,7 +3830,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>69</v>
       </c>
@@ -3211,12 +3841,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -3224,12 +3854,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>76</v>
       </c>
@@ -3237,616 +3867,678 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>50</v>
       </c>
-      <c r="B21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="C23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>93</v>
+      </c>
       <c r="B29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" t="s">
         <v>17</v>
       </c>
-      <c r="C29" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>90</v>
-      </c>
-      <c r="B30">
+      <c r="C32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33">
         <v>13</v>
       </c>
-      <c r="C30">
+      <c r="C33">
         <v>12</v>
       </c>
-      <c r="D30">
+      <c r="D33">
         <v>5</v>
       </c>
-      <c r="E30">
+      <c r="E33">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31">
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34">
         <v>7</v>
       </c>
-      <c r="C31">
+      <c r="C34">
         <v>13</v>
       </c>
-      <c r="D31">
+      <c r="D34">
         <v>6</v>
       </c>
-      <c r="E31">
+      <c r="E34">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32">
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35">
         <v>8</v>
       </c>
-      <c r="D32">
+      <c r="D35">
         <v>6</v>
       </c>
-      <c r="E32">
+      <c r="E35">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33">
+    <row r="36" spans="2:4">
+      <c r="B36">
         <v>20</v>
       </c>
-      <c r="C33">
+      <c r="C36">
         <v>33</v>
       </c>
-      <c r="D33">
+      <c r="D36">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" t="s">
         <v>109</v>
       </c>
-      <c r="C5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" t="s">
-        <v>101</v>
-      </c>
       <c r="E5" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>100</v>
+      <c r="B6" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G6" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>100</v>
+      <c r="B7" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G7" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>100</v>
+      <c r="B8" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>143</v>
+      <c r="G8" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>147</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="C1" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="D1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/数值.xlsx
+++ b/数值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="模型" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="163">
   <si>
     <t>数值：</t>
   </si>
@@ -460,6 +460,9 @@
   </si>
   <si>
     <t>施加1内伤</t>
+  </si>
+  <si>
+    <t>造成你当前化劲2倍的伤害，然后失去所有化劲</t>
   </si>
   <si>
     <t>基础规则：</t>
@@ -589,14 +592,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -756,12 +752,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1085,141 +1081,140 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2732,7 +2727,7 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
@@ -2776,7 +2771,7 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="4"/>
+      <c r="A3" s="3"/>
       <c r="B3" t="s">
         <v>18</v>
       </c>
@@ -2818,7 +2813,7 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="4"/>
+      <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -2856,7 +2851,7 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B5" t="s">
@@ -2893,7 +2888,7 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="4"/>
+      <c r="A6" s="3"/>
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -2913,7 +2908,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="4"/>
+      <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -2922,7 +2917,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B8" t="s">
@@ -2933,7 +2928,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="4"/>
+      <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -2972,7 +2967,7 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B11" t="s">
@@ -3016,7 +3011,7 @@
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="4"/>
+      <c r="A12" s="3"/>
       <c r="B12" t="s">
         <v>18</v>
       </c>
@@ -3058,7 +3053,7 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="4"/>
+      <c r="A13" s="3"/>
       <c r="B13" t="s">
         <v>19</v>
       </c>
@@ -3096,7 +3091,7 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B14" t="s">
@@ -3133,7 +3128,7 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="4"/>
+      <c r="A15" s="3"/>
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -3153,7 +3148,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="4"/>
+      <c r="A16" s="3"/>
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -3162,7 +3157,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B17" t="s">
@@ -3173,7 +3168,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="4"/>
+      <c r="A18" s="3"/>
       <c r="B18" t="s">
         <v>19</v>
       </c>
@@ -3212,7 +3207,7 @@
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
@@ -3256,7 +3251,7 @@
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="4"/>
+      <c r="A21" s="3"/>
       <c r="B21" t="s">
         <v>18</v>
       </c>
@@ -3298,7 +3293,7 @@
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="4"/>
+      <c r="A22" s="3"/>
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -3336,7 +3331,7 @@
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B23" t="s">
@@ -3373,7 +3368,7 @@
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="4"/>
+      <c r="A24" s="3"/>
       <c r="B24" t="s">
         <v>18</v>
       </c>
@@ -3393,7 +3388,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="4"/>
+      <c r="A25" s="3"/>
       <c r="B25" t="s">
         <v>19</v>
       </c>
@@ -3402,7 +3397,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B26" t="s">
@@ -3413,7 +3408,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="4"/>
+      <c r="A27" s="3"/>
       <c r="B27" t="s">
         <v>19</v>
       </c>
@@ -3452,7 +3447,7 @@
       </c>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B29" t="s">
@@ -3496,7 +3491,7 @@
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="4"/>
+      <c r="A30" s="3"/>
       <c r="B30" t="s">
         <v>18</v>
       </c>
@@ -3538,7 +3533,7 @@
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="4"/>
+      <c r="A31" s="3"/>
       <c r="B31" t="s">
         <v>19</v>
       </c>
@@ -3576,7 +3571,7 @@
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B32" t="s">
@@ -3613,7 +3608,7 @@
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="4"/>
+      <c r="A33" s="3"/>
       <c r="B33" t="s">
         <v>18</v>
       </c>
@@ -3633,7 +3628,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="4"/>
+      <c r="A34" s="3"/>
       <c r="B34" t="s">
         <v>19</v>
       </c>
@@ -3642,7 +3637,7 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B35" t="s">
@@ -3653,7 +3648,7 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="4"/>
+      <c r="A36" s="3"/>
       <c r="B36" t="s">
         <v>19</v>
       </c>
@@ -3686,8 +3681,8 @@
   <sheetPr/>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -3706,13 +3701,13 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3725,13 +3720,13 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3744,16 +3739,16 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3766,16 +3761,16 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4027,13 +4022,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -4154,19 +4149,19 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C6" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="1" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4174,13 +4169,13 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C7" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F7">
@@ -4194,13 +4189,13 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C8" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F8">
@@ -4208,6 +4203,14 @@
       </c>
       <c r="G8" s="1" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="6:7">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4230,80 +4233,80 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -4328,10 +4331,10 @@
         <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D1" t="s">
         <v>107</v>
@@ -4342,10 +4345,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
         <v>120</v>
@@ -4356,13 +4359,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4370,13 +4373,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4384,13 +4387,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4398,7 +4401,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4406,7 +4409,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4414,7 +4417,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4422,7 +4425,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4430,7 +4433,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4438,7 +4441,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4446,7 +4449,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4454,7 +4457,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4462,7 +4465,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4470,7 +4473,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4478,7 +4481,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4486,7 +4489,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4494,7 +4497,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4502,7 +4505,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4510,7 +4513,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4518,7 +4521,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4526,7 +4529,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4534,7 +4537,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/数值.xlsx
+++ b/数值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="模型" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="174">
   <si>
     <t>数值：</t>
   </si>
@@ -450,85 +450,118 @@
     <t>闪躲</t>
   </si>
   <si>
-    <t>获得3化劲</t>
+    <t>获得4化劲</t>
+  </si>
+  <si>
+    <t>金刚拳</t>
+  </si>
+  <si>
+    <t>造成6点伤害</t>
+  </si>
+  <si>
+    <t>日字冲拳</t>
+  </si>
+  <si>
+    <t>造成4次1点伤害</t>
+  </si>
+  <si>
+    <t>劈山掌</t>
+  </si>
+  <si>
+    <t>造成5点伤害，然后施加1内伤</t>
+  </si>
+  <si>
+    <t>四两拨千斤</t>
+  </si>
+  <si>
+    <t>造成你当前化劲2倍的伤害，然后失去所有化劲</t>
+  </si>
+  <si>
+    <t>游身掌</t>
+  </si>
+  <si>
+    <t>造成5点伤害，然后抽1张牌</t>
+  </si>
+  <si>
+    <t>猴形拳</t>
+  </si>
+  <si>
+    <t>造成5点伤害，然后获得4点化劲</t>
+  </si>
+  <si>
+    <t>基础规则：</t>
+  </si>
+  <si>
+    <t>伤害：1点伤害扣除1点血量</t>
+  </si>
+  <si>
+    <t>化劲：1点化劲抵消1点伤害，回合开始前清除</t>
+  </si>
+  <si>
+    <t>状态：默认堆叠5</t>
+  </si>
+  <si>
+    <t>堆叠X：该类型的状态最多拥有X个，达到堆叠上限后无法再获得同类状态</t>
+  </si>
+  <si>
+    <t>永久：该类型的状态回合结束时不会减少数量</t>
+  </si>
+  <si>
+    <t>失衡：</t>
+  </si>
+  <si>
+    <t>堆叠3，每当堆叠达到上限便清除所有失衡，然后获得1个倒地</t>
+  </si>
+  <si>
+    <t>倒地：</t>
+  </si>
+  <si>
+    <t>回合开始时每有1个倒地便受到5点伤害，然后全部清除</t>
+  </si>
+  <si>
+    <t>内伤：</t>
+  </si>
+  <si>
+    <t>下次受到的伤害数值变为双倍，然后清除1个内伤</t>
+  </si>
+  <si>
+    <t>乏力：</t>
+  </si>
+  <si>
+    <t>每有1个会令招式造成的伤害-1，使用招式造成伤害后清除1个乏力</t>
+  </si>
+  <si>
+    <t>气力：</t>
+  </si>
+  <si>
+    <t>每有1个会令招式造成的伤害+1</t>
+  </si>
+  <si>
+    <t>僵硬：</t>
+  </si>
+  <si>
+    <t>获得的化劲-1，回合结束后清除1个僵硬</t>
+  </si>
+  <si>
+    <t>中毒：</t>
+  </si>
+  <si>
+    <t>堆叠10，回合结束时受到等同于中毒数量的伤害</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>连招</t>
+  </si>
+  <si>
+    <t>八段锦</t>
+  </si>
+  <si>
+    <t>手手手</t>
   </si>
   <si>
     <t>造成5点伤害</t>
-  </si>
-  <si>
-    <t>造成4次1点伤害</t>
-  </si>
-  <si>
-    <t>施加1内伤</t>
-  </si>
-  <si>
-    <t>造成你当前化劲2倍的伤害，然后失去所有化劲</t>
-  </si>
-  <si>
-    <t>基础规则：</t>
-  </si>
-  <si>
-    <t>伤害：1点伤害扣除1点血量</t>
-  </si>
-  <si>
-    <t>化劲：1点化劲抵消1点伤害，回合开始前清除</t>
-  </si>
-  <si>
-    <t>状态：默认堆叠5</t>
-  </si>
-  <si>
-    <t>堆叠X：该类型的状态最多堆叠X个，超出的部分不会堆叠上去</t>
-  </si>
-  <si>
-    <t>永久：该类型的状态回合结束时不会减少数量</t>
-  </si>
-  <si>
-    <t>失衡：</t>
-  </si>
-  <si>
-    <t>每获得3个失衡，便清除3个失衡，然后获得1个倒地</t>
-  </si>
-  <si>
-    <t>倒地：</t>
-  </si>
-  <si>
-    <t>回合开始时每有1个倒地便受到5点伤害，然后全部清除</t>
-  </si>
-  <si>
-    <t>内伤：</t>
-  </si>
-  <si>
-    <t>下次受到的伤害数值变为双倍，然后清除1个内伤</t>
-  </si>
-  <si>
-    <t>乏力：</t>
-  </si>
-  <si>
-    <t>每有1个会令招式造成的伤害-1，使用招式造成伤害后清除1个乏力</t>
-  </si>
-  <si>
-    <t>气力：</t>
-  </si>
-  <si>
-    <t>每有1个会令招式造成的伤害+1</t>
-  </si>
-  <si>
-    <t>僵硬：</t>
-  </si>
-  <si>
-    <t>获得的化劲-1，回合结束后清除1个僵硬</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>连招</t>
-  </si>
-  <si>
-    <t>八段锦</t>
-  </si>
-  <si>
-    <t>手手手</t>
   </si>
   <si>
     <t>五禽戏</t>
@@ -752,12 +785,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3681,8 +3714,8 @@
   <sheetPr/>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -4022,10 +4055,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -4158,11 +4191,14 @@
       <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E6" t="s">
+        <v>120</v>
+      </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4178,11 +4214,14 @@
       <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E7" t="s">
+        <v>122</v>
+      </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4198,19 +4237,83 @@
       <c r="D8" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E8" t="s">
+        <v>124</v>
+      </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="6:7">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>126</v>
+      </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>123</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -4223,90 +4326,98 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B13" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B14" t="s">
-        <v>141</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -4320,7 +4431,7 @@
   <sheetPr/>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -4331,10 +4442,10 @@
         <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C1" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D1" t="s">
         <v>107</v>
@@ -4345,13 +4456,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4359,13 +4470,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4373,13 +4484,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4387,13 +4498,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="C5" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="D5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4401,7 +4512,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4409,7 +4520,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4417,7 +4528,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4425,7 +4536,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4433,7 +4544,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4441,7 +4552,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4449,7 +4560,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4457,7 +4568,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4465,7 +4576,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4473,7 +4584,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4481,7 +4592,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4489,7 +4600,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4497,7 +4608,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4505,7 +4616,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4513,7 +4624,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4521,7 +4632,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4529,7 +4640,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4537,7 +4648,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/数值.xlsx
+++ b/数值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="模型" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="185">
   <si>
     <t>数值：</t>
   </si>
@@ -441,7 +441,7 @@
     <t>头槌</t>
   </si>
   <si>
-    <t>造成1点伤害，施加失衡</t>
+    <t>造成1点伤害，然后施加失衡</t>
   </si>
   <si>
     <t>身</t>
@@ -489,6 +489,24 @@
     <t>造成5点伤害，然后获得4点化劲</t>
   </si>
   <si>
+    <t>闭穴术：檀中</t>
+  </si>
+  <si>
+    <t>造成3点伤害，然后施加檀中穴，若已有檀中穴，则额外造成3点伤害</t>
+  </si>
+  <si>
+    <t>清风拂穴</t>
+  </si>
+  <si>
+    <t>对所有敌人造成4点伤害</t>
+  </si>
+  <si>
+    <t>击气入体</t>
+  </si>
+  <si>
+    <t>造成5点伤害，然后施加1乏力</t>
+  </si>
+  <si>
     <t>基础规则：</t>
   </si>
   <si>
@@ -504,6 +522,9 @@
     <t>堆叠X：该类型的状态最多拥有X个，达到堆叠上限后无法再获得同类状态</t>
   </si>
   <si>
+    <t>计时X：打出该牌后牌留在场上，然后在牌上放置X个指示物，自己回合结束减少1个指示物，当指示物数量为0则弃掉该牌</t>
+  </si>
+  <si>
     <t>永久：该类型的状态回合结束时不会减少数量</t>
   </si>
   <si>
@@ -547,6 +568,18 @@
   </si>
   <si>
     <t>堆叠10，回合结束时受到等同于中毒数量的伤害</t>
+  </si>
+  <si>
+    <t>回旋：</t>
+  </si>
+  <si>
+    <t>堆叠1，类别为脚的招式伤害+3，回合内若没有打出过获得回旋的牌，则回合结束后清除回旋，获得眩晕</t>
+  </si>
+  <si>
+    <t>眩晕：</t>
+  </si>
+  <si>
+    <t>堆叠1，招式造成的伤害为0，回合结束后清除</t>
   </si>
   <si>
     <t>名称</t>
@@ -3714,8 +3747,8 @@
   <sheetPr/>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -4055,13 +4088,16 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <cols>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -4314,6 +4350,75 @@
       </c>
       <c r="G11" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -4326,98 +4431,119 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>139</v>
+      <c r="A6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B10" t="s">
-        <v>141</v>
+        <v>145</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>143</v>
+      <c r="A11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B12" t="s">
-        <v>145</v>
+      <c r="A12" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B13" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B14" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B15" t="s">
-        <v>151</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -4442,10 +4568,10 @@
         <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="C1" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="D1" t="s">
         <v>107</v>
@@ -4456,13 +4582,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C2" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4470,13 +4596,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="C3" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4484,13 +4610,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C4" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="D4" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4498,13 +4624,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4512,7 +4638,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4520,7 +4646,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4528,7 +4654,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4536,7 +4662,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4544,7 +4670,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4552,7 +4678,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4560,7 +4686,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4568,7 +4694,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4576,7 +4702,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4584,7 +4710,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4592,7 +4718,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4600,7 +4726,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4608,7 +4734,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4616,7 +4742,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4624,7 +4750,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4632,7 +4758,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4640,7 +4766,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4648,7 +4774,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
